--- a/Fix/fix cur. 20.xlsx
+++ b/Fix/fix cur. 20.xlsx
@@ -789,7 +789,7 @@
   <dimension ref="A1:U108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="32" spans="1:21" ht="12.75" customHeight="1">
       <c r="A32" s="44">
-        <v>41882</v>
+        <v>41941</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="3"/>
@@ -2051,7 +2051,7 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="8">
-        <v>17336</v>
+        <v>18095</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>12</v>
@@ -2103,7 +2103,7 @@
       <c r="H36" s="4"/>
       <c r="I36" s="17">
         <f>I32+I34</f>
-        <v>111246.66666666667</v>
+        <v>112005.66666666667</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>

--- a/Fix/fix cur. 20.xlsx
+++ b/Fix/fix cur. 20.xlsx
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="32" spans="1:21" ht="12.75" customHeight="1">
       <c r="A32" s="44">
-        <v>41941</v>
+        <v>41947</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="3"/>

--- a/Fix/fix cur. 20.xlsx
+++ b/Fix/fix cur. 20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>amt</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>1111500111463301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50300020863891 </t>
   </si>
   <si>
     <t>1111500111466401</t>
@@ -269,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -356,22 +353,9 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -416,6 +400,22 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U108"/>
+  <dimension ref="A1:U107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -873,47 +873,47 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="1:21" s="37" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="32">
+    <row r="3" spans="1:21" s="54" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="49">
         <v>10.75</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="49">
         <v>9.25</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="49">
         <v>1</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33">
+      <c r="F3" s="49"/>
+      <c r="G3" s="50">
         <v>41636</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="50">
         <v>42001</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="51">
         <f>24188/3</f>
         <v>8062.666666666667</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
     </row>
     <row r="4" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="9">
@@ -931,7 +931,7 @@
       <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="15">
         <v>41713</v>
       </c>
@@ -956,87 +956,87 @@
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
     </row>
-    <row r="5" spans="1:21" s="50" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="46">
+    <row r="5" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A5" s="9">
+        <v>6.75</v>
+      </c>
+      <c r="B5" s="9">
+        <v>9.25</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="15">
+        <v>41887</v>
+      </c>
+      <c r="H5" s="15">
+        <v>42252</v>
+      </c>
+      <c r="I5" s="19">
+        <v>5164</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+    </row>
+    <row r="6" spans="1:21" s="45" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A6" s="41">
         <v>1.5</v>
       </c>
-      <c r="B5" s="46">
-        <v>9.75</v>
-      </c>
-      <c r="C5" s="46">
+      <c r="B6" s="41">
+        <v>9</v>
+      </c>
+      <c r="C6" s="41">
         <v>1000</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D6" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E6" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="51">
-        <v>40941</v>
-      </c>
-      <c r="H5" s="51">
+      <c r="F6" s="41"/>
+      <c r="G6" s="46">
         <v>41941</v>
       </c>
-      <c r="I5" s="47">
-        <v>1209</v>
-      </c>
-      <c r="J5" s="48" t="s">
+      <c r="H6" s="46">
+        <v>42941</v>
+      </c>
+      <c r="I6" s="42">
+        <v>1073</v>
+      </c>
+      <c r="J6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="46"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-    </row>
-    <row r="6" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="9">
-        <v>6.75</v>
-      </c>
-      <c r="B6" s="9">
-        <v>9.25</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="15">
-        <v>41887</v>
-      </c>
-      <c r="H6" s="15">
-        <v>42252</v>
-      </c>
-      <c r="I6" s="19">
-        <v>5164</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
     </row>
     <row r="7" spans="1:21" ht="12.75" customHeight="1">
       <c r="A7" s="3"/>
@@ -1052,8 +1052,8 @@
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
       <c r="K7" s="8">
-        <f>SUM(I3:I6)</f>
-        <v>17877.666666666668</v>
+        <f>SUM(I3:I5)</f>
+        <v>16668.666666666668</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -1089,7 +1089,7 @@
       <c r="H8" s="21">
         <v>42399</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="48">
         <v>10215</v>
       </c>
       <c r="J8" s="10" t="s">
@@ -1175,7 +1175,7 @@
         <v>3425</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="11"/>
@@ -1216,7 +1216,7 @@
         <v>2309</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="11"/>
@@ -1267,13 +1267,13 @@
         <v>9.6</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="15">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="15">
@@ -1327,7 +1327,7 @@
         <v>10125</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="11"/>
@@ -1355,7 +1355,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="15">
@@ -1368,7 +1368,7 @@
         <v>3175</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="11"/>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="19" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A19" s="9">
-        <v>2.9</v>
+        <v>11.9</v>
       </c>
       <c r="B19" s="9">
         <v>9.43</v>
@@ -1511,16 +1511,16 @@
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="15">
-        <v>41589</v>
+        <v>41673</v>
       </c>
       <c r="H19" s="15">
-        <v>41955</v>
+        <v>42039</v>
       </c>
       <c r="I19" s="19">
-        <v>2322</v>
+        <v>9531</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="11"/>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="20" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A20" s="9">
-        <v>11.9</v>
+        <v>3.55</v>
       </c>
       <c r="B20" s="9">
         <v>9.43</v>
@@ -1552,16 +1552,16 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="15">
-        <v>41673</v>
+        <v>41761</v>
       </c>
       <c r="H20" s="15">
-        <v>42039</v>
-      </c>
-      <c r="I20" s="19">
-        <v>9531</v>
+        <v>42127</v>
+      </c>
+      <c r="I20" s="31">
+        <v>2843</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="11"/>
@@ -1575,126 +1575,126 @@
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
     </row>
-    <row r="21" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A21" s="9">
-        <v>3.55</v>
-      </c>
-      <c r="B21" s="9">
-        <v>9.43</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="9" t="s">
+    <row r="21" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3">
+        <f>SUM(A17:A20)</f>
+        <v>22.150000000000002</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="8">
+        <f>SUM(I17:I20)</f>
+        <v>17598</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+    </row>
+    <row r="22" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A22" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="B22" s="9">
+        <v>10</v>
+      </c>
+      <c r="C22" s="9">
+        <v>2</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="15">
-        <v>41761</v>
-      </c>
-      <c r="H21" s="15">
-        <v>42127</v>
-      </c>
-      <c r="I21" s="31">
-        <v>2843</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-    </row>
-    <row r="22" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3">
-        <f>SUM(A17:A21)</f>
-        <v>25.05</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="8">
-        <f>SUM(I17:I21)</f>
-        <v>19920</v>
-      </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-    </row>
-    <row r="23" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A23" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="B23" s="9">
-        <v>10</v>
-      </c>
-      <c r="C23" s="9">
-        <v>2</v>
-      </c>
-      <c r="D23" s="9" t="s">
+      <c r="E22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="15">
+        <v>41637</v>
+      </c>
+      <c r="H22" s="15">
+        <v>42367</v>
+      </c>
+      <c r="I22" s="19">
+        <v>2000</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+    </row>
+    <row r="23" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A23" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="B23" s="3">
+        <v>9.75</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="15">
-        <v>41637</v>
-      </c>
-      <c r="H23" s="15">
-        <v>42367</v>
+      <c r="F23" s="3"/>
+      <c r="G23" s="5">
+        <v>41405</v>
+      </c>
+      <c r="H23" s="5">
+        <v>42105</v>
       </c>
       <c r="I23" s="19">
-        <v>2000</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
+        <v>3169</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
     </row>
     <row r="24" spans="1:21" ht="12.75" customHeight="1">
       <c r="A24" s="3">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="B24" s="3">
         <v>9.75</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>25</v>
+      <c r="C24" s="3">
+        <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>6</v>
@@ -1704,16 +1704,16 @@
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="5">
-        <v>41405</v>
+        <v>41429</v>
       </c>
       <c r="H24" s="5">
-        <v>42105</v>
+        <v>42159</v>
       </c>
       <c r="I24" s="19">
-        <v>3169</v>
+        <v>2803</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="4"/>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="25" spans="1:21" ht="12.75" customHeight="1">
       <c r="A25" s="3">
-        <v>3.45</v>
+        <v>5.75</v>
       </c>
       <c r="B25" s="3">
         <v>9.75</v>
@@ -1745,16 +1745,16 @@
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="5">
-        <v>41429</v>
+        <v>41520</v>
       </c>
       <c r="H25" s="5">
-        <v>42159</v>
+        <v>42250</v>
       </c>
       <c r="I25" s="19">
-        <v>2803</v>
+        <v>4672</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="4"/>
@@ -1768,9 +1768,9 @@
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="1:21" ht="12.75" customHeight="1">
+    <row r="26" spans="1:21" s="27" customFormat="1" ht="12.75" customHeight="1">
       <c r="A26" s="3">
-        <v>5.75</v>
+        <v>3.15</v>
       </c>
       <c r="B26" s="3">
         <v>9.75</v>
@@ -1786,32 +1786,32 @@
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="5">
-        <v>41520</v>
+        <v>41536</v>
       </c>
       <c r="H26" s="5">
-        <v>42250</v>
+        <v>42266</v>
       </c>
       <c r="I26" s="19">
-        <v>4672</v>
+        <v>2559</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-    </row>
-    <row r="27" spans="1:21" s="27" customFormat="1" ht="12.75" customHeight="1">
+        <v>31</v>
+      </c>
+      <c r="K26" s="25"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+    </row>
+    <row r="27" spans="1:21" ht="12.75" customHeight="1">
       <c r="A27" s="3">
-        <v>3.15</v>
+        <v>4.5</v>
       </c>
       <c r="B27" s="3">
         <v>9.75</v>
@@ -1827,111 +1827,99 @@
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="5">
-        <v>41536</v>
+        <v>41552</v>
       </c>
       <c r="H27" s="5">
-        <v>42266</v>
+        <v>42282</v>
       </c>
       <c r="I27" s="19">
-        <v>2559</v>
+        <v>3656</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K27" s="25"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-    </row>
-    <row r="28" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A28" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="B28" s="3">
-        <v>9.75</v>
-      </c>
-      <c r="C28" s="3">
-        <v>2</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="K27" s="3"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+    </row>
+    <row r="28" spans="1:21" s="37" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A28" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="B28" s="33">
+        <v>9</v>
+      </c>
+      <c r="C28" s="33">
+        <v>60</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="5">
-        <v>41552</v>
-      </c>
-      <c r="H28" s="5">
-        <v>42282</v>
-      </c>
-      <c r="I28" s="19">
-        <v>3656</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-    </row>
-    <row r="29" spans="1:21" s="42" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A29" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="B29" s="38">
-        <v>9</v>
-      </c>
-      <c r="C29" s="38">
-        <v>60</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39">
+      <c r="F28" s="33"/>
+      <c r="G28" s="34">
         <v>41650</v>
       </c>
-      <c r="H29" s="39">
+      <c r="H28" s="34">
         <v>43476</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I28" s="32">
         <f>1125/3</f>
         <v>375</v>
       </c>
-      <c r="J29" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="K29" s="38"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
+      <c r="J28" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" s="33"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+    </row>
+    <row r="29" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3">
+        <f>SUM(A22:A28)</f>
+        <v>23.65</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="8">
+        <f>SUM(I22:I27)</f>
+        <v>18859</v>
+      </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
     </row>
     <row r="30" spans="1:21" ht="12.75" customHeight="1">
       <c r="A30" s="3"/>
@@ -1939,18 +1927,12 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="3">
-        <f>SUM(A23:A29)</f>
-        <v>23.65</v>
-      </c>
+      <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="8"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="8">
-        <f>SUM(I23:I28)</f>
-        <v>18859</v>
-      </c>
+      <c r="K30" s="3"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -1963,16 +1945,26 @@
       <c r="U30" s="4"/>
     </row>
     <row r="31" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="39">
+        <v>41967</v>
+      </c>
+      <c r="B31" s="8"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="F31" s="1">
+        <f>SUM(F3:F29)</f>
+        <v>115.35000000000002</v>
+      </c>
       <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="3"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="16">
+        <f>SUM(I3:I27)</f>
+        <v>91452.666666666672</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="K31" s="3"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
@@ -1986,26 +1978,16 @@
       <c r="U31" s="4"/>
     </row>
     <row r="32" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A32" s="44">
-        <v>41947</v>
-      </c>
+      <c r="A32" s="3"/>
       <c r="B32" s="8"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="1">
-        <f>SUM(F3:F30)</f>
-        <v>118.25</v>
-      </c>
+      <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="16">
-        <f>SUM(I3:I28)</f>
-        <v>93910.666666666672</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
@@ -2021,14 +2003,18 @@
     <row r="33" spans="1:21" ht="12.75" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="3"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="8">
+        <v>18095</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="K33" s="3"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -2043,19 +2029,14 @@
     </row>
     <row r="34" spans="1:21" ht="12.75" customHeight="1">
       <c r="A34" s="3"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+      <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="8">
-        <v>18095</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="I34" s="20"/>
+      <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
@@ -2070,13 +2051,19 @@
     </row>
     <row r="35" spans="1:21" ht="12.75" customHeight="1">
       <c r="A35" s="3"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="G35">
+        <v>400000</v>
+      </c>
       <c r="H35" s="4"/>
-      <c r="I35" s="20"/>
+      <c r="I35" s="17">
+        <f>I31+I33</f>
+        <v>109547.66666666667</v>
+      </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="4"/>
@@ -2091,20 +2078,15 @@
       <c r="U35" s="4"/>
     </row>
     <row r="36" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="14"/>
       <c r="G36">
-        <v>400000</v>
+        <v>285000</v>
       </c>
       <c r="H36" s="4"/>
-      <c r="I36" s="17">
-        <f>I32+I34</f>
-        <v>112005.66666666667</v>
-      </c>
+      <c r="I36" s="4"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="4"/>
@@ -2121,11 +2103,8 @@
     <row r="37" spans="1:21" ht="12.75" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="14"/>
-      <c r="G37">
-        <v>285000</v>
-      </c>
+      <c r="C37" s="12"/>
+      <c r="E37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="3"/>
@@ -2144,11 +2123,14 @@
     <row r="38" spans="1:21" ht="12.75" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="12"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="8"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="3"/>
+      <c r="J38" s="40"/>
       <c r="K38" s="3"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
@@ -2162,16 +2144,24 @@
       <c r="U38" s="4"/>
     </row>
     <row r="39" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="A39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="4">
+        <v>250000</v>
+      </c>
+      <c r="C39" s="4">
+        <f>SUM(I22:I27) * 12 + 4*I28</f>
+        <v>227808</v>
+      </c>
+      <c r="E39" s="4">
+        <f>B39-C39</f>
+        <v>22192</v>
+      </c>
       <c r="G39" s="4"/>
-      <c r="H39" s="8"/>
+      <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="45"/>
+      <c r="J39" s="40"/>
       <c r="K39" s="3"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -2192,17 +2182,17 @@
         <v>250000</v>
       </c>
       <c r="C40" s="4">
-        <f>SUM(I23:I28) * 12 + 4*I29</f>
-        <v>227808</v>
+        <f>SUM(I17:I20) * 12</f>
+        <v>211176</v>
       </c>
       <c r="E40" s="4">
         <f>B40-C40</f>
-        <v>22192</v>
+        <v>38824</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="45"/>
+      <c r="J40" s="40"/>
       <c r="K40" s="3"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
@@ -2223,17 +2213,30 @@
         <v>250000</v>
       </c>
       <c r="C41" s="4">
-        <f>SUM(I17:I21) * 12</f>
-        <v>239040</v>
-      </c>
+        <f>(29597 + 6488) + (3175 * 2 + 1258) + (3175 * 12) + (5354 * 3 + 1040) + (6075 + 10125 * 11) + (1331 + 3175 * 8)</f>
+        <v>243076</v>
+      </c>
+      <c r="D41" s="4"/>
       <c r="E41" s="4">
-        <f>B41-C41</f>
-        <v>10960</v>
-      </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="45"/>
+        <f t="shared" ref="E41:E43" si="0">B41-C41</f>
+        <v>6924</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41">
+        <f>G35*0.1/12</f>
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="H41" s="20">
+        <v>9</v>
+      </c>
+      <c r="I41" s="20">
+        <f>G41*H41</f>
+        <v>30000</v>
+      </c>
+      <c r="J41" s="38">
+        <f>C41+I41</f>
+        <v>273076</v>
+      </c>
       <c r="K41" s="3"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -2254,29 +2257,29 @@
         <v>250000</v>
       </c>
       <c r="C42" s="4">
-        <f>(29597 + 6488) + (3175 * 2 + 1258) + (3175 * 12) + (5354 * 3 + 1040) + (6075 + 10125 * 11) + (1331 + 3175 * 8)</f>
-        <v>243076</v>
+        <f>(4030 * 3) + (3425 * 9) + (10215 * 12) + (4830 * 12) + 567 + (2309 * 9)</f>
+        <v>244803</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4">
-        <f t="shared" ref="E42:E44" si="0">B42-C42</f>
-        <v>6924</v>
+        <f>B42-C42</f>
+        <v>5197</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42">
         <f>G36*0.1/12</f>
-        <v>3333.3333333333335</v>
+        <v>2375</v>
       </c>
       <c r="H42" s="20">
         <v>9</v>
       </c>
       <c r="I42" s="20">
         <f>G42*H42</f>
-        <v>30000</v>
-      </c>
-      <c r="J42" s="43">
+        <v>21375</v>
+      </c>
+      <c r="J42" s="38">
         <f>C42+I42</f>
-        <v>273076</v>
+        <v>266178</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="4"/>
@@ -2298,30 +2301,19 @@
         <v>250000</v>
       </c>
       <c r="C43" s="4">
-        <f>(4030 * 3) + (3425 * 9) + (10215 * 12) + (4830 * 12) + 567 + (2309 * 9)</f>
-        <v>244803</v>
+        <f>SUM(I3:I4) * 12 + I5 * 7</f>
+        <v>174204</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4">
-        <f>B43-C43</f>
-        <v>5197</v>
+        <f t="shared" si="0"/>
+        <v>75796</v>
       </c>
       <c r="F43" s="4"/>
-      <c r="G43">
-        <f>G37*0.1/12</f>
-        <v>2375</v>
-      </c>
-      <c r="H43" s="20">
-        <v>9</v>
-      </c>
-      <c r="I43" s="20">
-        <f>G43*H43</f>
-        <v>21375</v>
-      </c>
-      <c r="J43" s="43">
-        <f>C43+I43</f>
-        <v>266178</v>
-      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="40"/>
       <c r="K43" s="3"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -2335,26 +2327,16 @@
       <c r="U43" s="4"/>
     </row>
     <row r="44" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A44" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="4">
-        <v>250000</v>
-      </c>
-      <c r="C44" s="4">
-        <f>SUM(I3:I5) * 12 + I6 * 7</f>
-        <v>188712</v>
-      </c>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="4">
-        <f t="shared" si="0"/>
-        <v>61288</v>
-      </c>
+      <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="45"/>
+      <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
@@ -2460,7 +2442,7 @@
       <c r="U48" s="4"/>
     </row>
     <row r="49" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A49" s="4"/>
+      <c r="A49" s="38"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -2483,7 +2465,7 @@
       <c r="U49" s="4"/>
     </row>
     <row r="50" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A50" s="43"/>
+      <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -3816,29 +3798,6 @@
       <c r="T107" s="4"/>
       <c r="U107" s="4"/>
     </row>
-    <row r="108" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="4"/>
-      <c r="M108" s="4"/>
-      <c r="N108" s="4"/>
-      <c r="O108" s="4"/>
-      <c r="P108" s="4"/>
-      <c r="Q108" s="4"/>
-      <c r="R108" s="4"/>
-      <c r="S108" s="4"/>
-      <c r="T108" s="4"/>
-      <c r="U108" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" firstPageNumber="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Fix/fix cur. 20.xlsx
+++ b/Fix/fix cur. 20.xlsx
@@ -1021,7 +1021,7 @@
         <v>42941</v>
       </c>
       <c r="I6" s="42">
-        <v>1073</v>
+        <v>1117</v>
       </c>
       <c r="J6" s="43" t="s">
         <v>16</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="31" spans="1:21" ht="12.75" customHeight="1">
       <c r="A31" s="39">
-        <v>41967</v>
+        <v>41973</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="3"/>
@@ -1960,7 +1960,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="16">
         <f>SUM(I3:I27)</f>
-        <v>91452.666666666672</v>
+        <v>91496.666666666672</v>
       </c>
       <c r="J31" s="13" t="s">
         <v>3</v>
@@ -2062,7 +2062,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="17">
         <f>I31+I33</f>
-        <v>109547.66666666667</v>
+        <v>109591.66666666667</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>

--- a/Fix/fix cur. 20.xlsx
+++ b/Fix/fix cur. 20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>amt</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>34145934830</t>
+  </si>
+  <si>
+    <t>Except KB</t>
   </si>
 </sst>
 </file>
@@ -788,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1946,9 +1949,11 @@
     </row>
     <row r="31" spans="1:21" ht="12.75" customHeight="1">
       <c r="A31" s="39">
-        <v>41973</v>
-      </c>
-      <c r="B31" s="8"/>
+        <v>41994</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>

--- a/Fix/fix cur. 20.xlsx
+++ b/Fix/fix cur. 20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>amt</t>
   </si>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t>34145934830</t>
-  </si>
-  <si>
-    <t>Except KB</t>
   </si>
 </sst>
 </file>
@@ -791,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -897,7 +894,7 @@
         <v>41636</v>
       </c>
       <c r="H3" s="50">
-        <v>42001</v>
+        <v>42366</v>
       </c>
       <c r="I3" s="51">
         <f>24188/3</f>
@@ -1949,11 +1946,9 @@
     </row>
     <row r="31" spans="1:21" ht="12.75" customHeight="1">
       <c r="A31" s="39">
-        <v>41994</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>41644</v>
+      </c>
+      <c r="B31" s="8"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>

--- a/Fix/fix cur. 20.xlsx
+++ b/Fix/fix cur. 20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
   <si>
     <t>amt</t>
   </si>
@@ -158,6 +158,27 @@
   </si>
   <si>
     <t>34145934830</t>
+  </si>
+  <si>
+    <t>Redeemed</t>
+  </si>
+  <si>
+    <t>kk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8911533266 </t>
+  </si>
+  <si>
+    <t>8911533662</t>
+  </si>
+  <si>
+    <t>8911534119</t>
+  </si>
+  <si>
+    <t>8911536144</t>
+  </si>
+  <si>
+    <t>8911536359</t>
   </si>
 </sst>
 </file>
@@ -167,7 +188,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -187,12 +208,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -266,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -286,31 +301,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -318,42 +324,42 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -372,50 +378,70 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U107"/>
+  <dimension ref="A1:U114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -803,7 +829,7 @@
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="29" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="26" customWidth="1"/>
     <col min="11" max="21" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -873,170 +899,170 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="1:21" s="54" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="49">
+    <row r="3" spans="1:21" s="50" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="45">
         <v>10.75</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="45">
         <v>9.25</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="45">
         <v>1</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50">
+      <c r="F3" s="45"/>
+      <c r="G3" s="46">
         <v>41636</v>
       </c>
-      <c r="H3" s="50">
+      <c r="H3" s="46">
         <v>42366</v>
       </c>
-      <c r="I3" s="51">
+      <c r="I3" s="47">
         <f>24188/3</f>
         <v>8062.666666666667</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-    </row>
-    <row r="4" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="9">
+      <c r="K3" s="45"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+    </row>
+    <row r="4" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A4" s="8">
         <v>4.5</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>9.25</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>555</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="15">
+      <c r="F4" s="43"/>
+      <c r="G4" s="13">
         <v>41713</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="13">
         <v>42268</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="16">
         <v>3442</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-    </row>
-    <row r="5" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="9">
+      <c r="K4" s="8"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+    </row>
+    <row r="5" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A5" s="8">
         <v>6.75</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>9.25</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>1</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="15">
+      <c r="F5" s="8"/>
+      <c r="G5" s="13">
         <v>41887</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="13">
         <v>42252</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="16">
         <v>5164</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-    </row>
-    <row r="6" spans="1:21" s="45" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="41">
+      <c r="K5" s="8"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+    </row>
+    <row r="6" spans="1:21" s="41" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A6" s="37">
         <v>1.5</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="37">
         <v>9</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="37">
         <v>1000</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="46">
+      <c r="F6" s="37"/>
+      <c r="G6" s="42">
         <v>41941</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="42">
         <v>42941</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="38">
         <v>1117</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
     </row>
     <row r="7" spans="1:21" ht="12.75" customHeight="1">
       <c r="A7" s="3"/>
@@ -1050,8 +1076,8 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="8"/>
-      <c r="K7" s="8">
+      <c r="I7" s="7"/>
+      <c r="K7" s="7">
         <f>SUM(I3:I5)</f>
         <v>16668.666666666668</v>
       </c>
@@ -1066,169 +1092,169 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A8" s="9">
+    <row r="8" spans="1:21" s="21" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A8" s="8">
         <v>12.3</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>10.050000000000001</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>3</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="21">
+      <c r="F8" s="8"/>
+      <c r="G8" s="18">
         <v>41304</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="18">
         <v>42399</v>
       </c>
-      <c r="I8" s="48">
+      <c r="I8" s="44">
         <v>10215</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-    </row>
-    <row r="9" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A9" s="9">
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+    </row>
+    <row r="9" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A9" s="8">
         <v>6.15</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>9.5</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>24</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="21">
+      <c r="F9" s="8"/>
+      <c r="G9" s="18">
         <v>41480</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="18">
         <v>42210</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="16">
         <v>4830</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-    </row>
-    <row r="10" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A10" s="9">
+      <c r="K9" s="8"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+    </row>
+    <row r="10" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A10" s="8">
         <v>4.25</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>9.75</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>12</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="21">
+      <c r="F10" s="8"/>
+      <c r="G10" s="18">
         <v>41776</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="18">
         <v>42141</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="16">
         <v>3425</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-    </row>
-    <row r="11" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A11" s="9">
+      <c r="K10" s="8"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+    </row>
+    <row r="11" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A11" s="8">
         <v>2.85</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>9.8000000000000007</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>24</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="21">
+      <c r="F11" s="8"/>
+      <c r="G11" s="18">
         <v>41816</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="18">
         <v>42547</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="16">
         <v>2309</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
     </row>
     <row r="12" spans="1:21" ht="12.75" customHeight="1">
       <c r="A12" s="3"/>
@@ -1242,9 +1268,9 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="8"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <f>SUM(I8:I11)</f>
         <v>20779</v>
       </c>
@@ -1259,128 +1285,128 @@
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A13" s="9">
+    <row r="13" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A13" s="8">
         <v>4</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>9.6</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="15">
+      <c r="F13" s="8"/>
+      <c r="G13" s="13">
         <v>41675</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="13">
         <v>42171</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="28">
         <v>3175</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-    </row>
-    <row r="14" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A14" s="9">
+      <c r="K13" s="8"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+    </row>
+    <row r="14" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A14" s="8">
         <v>12.5</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>9.8000000000000007</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="15">
+      <c r="F14" s="8"/>
+      <c r="G14" s="13">
         <v>41741</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="13">
         <v>42241</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="16">
         <v>10125</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-    </row>
-    <row r="15" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A15" s="9">
+      <c r="K14" s="8"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+    </row>
+    <row r="15" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A15" s="8">
         <v>4</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>9.6</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="15">
+      <c r="F15" s="8"/>
+      <c r="G15" s="13">
         <v>41838</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="13">
         <v>42203</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="16">
         <v>3175</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
     </row>
     <row r="16" spans="1:21" ht="12.75" customHeight="1">
       <c r="A16" s="3"/>
@@ -1392,11 +1418,11 @@
         <f>SUM(A13:A15)</f>
         <v>20.5</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="8"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <f>SUM(I13:I15)</f>
         <v>16475</v>
       </c>
@@ -1411,169 +1437,173 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A17" s="9">
+    <row r="17" spans="1:21" s="54" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A17" s="43">
         <v>4.3</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="43">
         <v>9.18</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="43">
         <v>24</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="15">
+      <c r="F17" s="43"/>
+      <c r="G17" s="51">
         <v>41313</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="51">
         <v>42043</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="25">
         <v>3353</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-    </row>
-    <row r="18" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A18" s="9">
+      <c r="K17" s="43"/>
+      <c r="L17" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+    </row>
+    <row r="18" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A18" s="8">
         <v>2.4</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>9.18</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>24</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="15">
+      <c r="F18" s="8"/>
+      <c r="G18" s="13">
         <v>41442</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="13">
         <v>42172</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="16">
         <v>1871</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-    </row>
-    <row r="19" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A19" s="9">
+      <c r="K18" s="8"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+    </row>
+    <row r="19" spans="1:21" s="54" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A19" s="43">
         <v>11.9</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="43">
         <v>9.43</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="15">
+      <c r="F19" s="43"/>
+      <c r="G19" s="51">
         <v>41673</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="51">
         <v>42039</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="25">
         <v>9531</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-    </row>
-    <row r="20" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A20" s="9">
+      <c r="K19" s="43"/>
+      <c r="L19" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+    </row>
+    <row r="20" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A20" s="8">
         <v>3.55</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>9.43</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="15">
+      <c r="F20" s="8"/>
+      <c r="G20" s="13">
         <v>41761</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="13">
         <v>42127</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I20" s="28">
         <v>2843</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
     </row>
     <row r="21" spans="1:21" ht="12.75" customHeight="1">
       <c r="A21" s="3"/>
@@ -1587,9 +1617,9 @@
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="8"/>
+      <c r="I21" s="7"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="8">
+      <c r="K21" s="7">
         <f>SUM(I17:I20)</f>
         <v>17598</v>
       </c>
@@ -1604,46 +1634,46 @@
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
     </row>
-    <row r="22" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A22" s="9">
+    <row r="22" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A22" s="8">
         <v>2.4</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>10</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>2</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="15">
+      <c r="F22" s="8"/>
+      <c r="G22" s="13">
         <v>41637</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="13">
         <v>42367</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="16">
         <v>2000</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
     </row>
     <row r="23" spans="1:21" ht="12.75" customHeight="1">
       <c r="A23" s="3">
@@ -1668,7 +1698,7 @@
       <c r="H23" s="5">
         <v>42105</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="16">
         <v>3169</v>
       </c>
       <c r="J23" s="6" t="s">
@@ -1709,7 +1739,7 @@
       <c r="H24" s="5">
         <v>42159</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="16">
         <v>2803</v>
       </c>
       <c r="J24" s="6" t="s">
@@ -1750,7 +1780,7 @@
       <c r="H25" s="5">
         <v>42250</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="16">
         <v>4672</v>
       </c>
       <c r="J25" s="6" t="s">
@@ -1768,7 +1798,7 @@
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="1:21" s="27" customFormat="1" ht="12.75" customHeight="1">
+    <row r="26" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1">
       <c r="A26" s="3">
         <v>3.15</v>
       </c>
@@ -1791,23 +1821,23 @@
       <c r="H26" s="5">
         <v>42266</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="16">
         <v>2559</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K26" s="25"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
     </row>
     <row r="27" spans="1:21" ht="12.75" customHeight="1">
       <c r="A27" s="3">
@@ -1832,7 +1862,7 @@
       <c r="H27" s="5">
         <v>42282</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="16">
         <v>3656</v>
       </c>
       <c r="J27" s="6" t="s">
@@ -1850,47 +1880,47 @@
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="1:21" s="37" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A28" s="33">
+    <row r="28" spans="1:21" s="34" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A28" s="30">
         <v>0.5</v>
       </c>
-      <c r="B28" s="33">
+      <c r="B28" s="30">
         <v>9</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="30">
         <v>60</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="34">
+      <c r="F28" s="30"/>
+      <c r="G28" s="31">
         <v>41650</v>
       </c>
-      <c r="H28" s="34">
+      <c r="H28" s="31">
         <v>43476</v>
       </c>
-      <c r="I28" s="32">
+      <c r="I28" s="29">
         <f>1125/3</f>
         <v>375</v>
       </c>
-      <c r="J28" s="35" t="s">
+      <c r="J28" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="33"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
     </row>
     <row r="29" spans="1:21" ht="12.75" customHeight="1">
       <c r="A29" s="3"/>
@@ -1904,9 +1934,9 @@
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="8"/>
+      <c r="I29" s="7"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="8">
+      <c r="K29" s="7">
         <f>SUM(I22:I27)</f>
         <v>18859</v>
       </c>
@@ -1930,9 +1960,9 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="8"/>
+      <c r="I30" s="7"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -1944,50 +1974,76 @@
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A31" s="39">
-        <v>41644</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="1">
-        <f>SUM(F3:F29)</f>
-        <v>115.35000000000002</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="16">
-        <f>SUM(I3:I27)</f>
-        <v>91496.666666666672</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
+    <row r="31" spans="1:21" s="59" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A31" s="55">
+        <v>0.25</v>
+      </c>
+      <c r="B31" s="55">
+        <v>9.25</v>
+      </c>
+      <c r="C31" s="55">
+        <v>270</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="55"/>
+      <c r="G31" s="56">
+        <v>42010</v>
+      </c>
+      <c r="H31" s="56">
+        <v>42280</v>
+      </c>
+      <c r="I31" s="29">
+        <v>570</v>
+      </c>
+      <c r="J31" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" s="55"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="58"/>
     </row>
     <row r="32" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A32" s="3"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="A32" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="B32" s="3">
+        <v>9.18</v>
+      </c>
+      <c r="C32" s="3">
+        <v>270</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="3"/>
+      <c r="G32" s="5">
+        <v>42011</v>
+      </c>
+      <c r="H32" s="5">
+        <v>42281</v>
+      </c>
+      <c r="I32" s="16">
+        <v>2183</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="K32" s="3"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
@@ -2001,19 +2057,33 @@
       <c r="U32" s="4"/>
     </row>
     <row r="33" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A33" s="3"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="8">
-        <v>18095</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>12</v>
+      <c r="A33" s="3">
+        <v>3.35</v>
+      </c>
+      <c r="B33" s="3">
+        <v>9.18</v>
+      </c>
+      <c r="C33" s="3">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="5">
+        <v>42012</v>
+      </c>
+      <c r="H33" s="5">
+        <v>42042</v>
+      </c>
+      <c r="I33" s="16">
+        <v>2612</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="4"/>
@@ -2028,15 +2098,34 @@
       <c r="U33" s="4"/>
     </row>
     <row r="34" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="3"/>
+      <c r="A34" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="B34" s="3">
+        <v>9.18</v>
+      </c>
+      <c r="C34" s="3">
+        <v>270</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="5">
+        <v>42017</v>
+      </c>
+      <c r="H34" s="5">
+        <v>42287</v>
+      </c>
+      <c r="I34" s="16">
+        <v>4210</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="K34" s="3"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
@@ -2050,21 +2139,34 @@
       <c r="U34" s="4"/>
     </row>
     <row r="35" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35">
-        <v>400000</v>
-      </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="17">
-        <f>I31+I33</f>
-        <v>109591.66666666667</v>
-      </c>
-      <c r="J35" s="3"/>
+      <c r="A35" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="B35" s="3">
+        <v>9.18</v>
+      </c>
+      <c r="C35" s="3">
+        <v>12</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="5">
+        <v>42018</v>
+      </c>
+      <c r="H35" s="5">
+        <v>42018</v>
+      </c>
+      <c r="I35" s="16">
+        <v>4074</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="K35" s="3"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
@@ -2078,15 +2180,15 @@
       <c r="U35" s="4"/>
     </row>
     <row r="36" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="14"/>
-      <c r="G36">
-        <v>285000</v>
-      </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="7"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="4"/>
@@ -2101,12 +2203,18 @@
       <c r="U36" s="4"/>
     </row>
     <row r="37" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="12"/>
-      <c r="E37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3">
+        <f>SUM(A31:A35)</f>
+        <v>17.200000000000003</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="7"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="4"/>
@@ -2121,16 +2229,16 @@
       <c r="U37" s="4"/>
     </row>
     <row r="38" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="40"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
@@ -2144,24 +2252,21 @@
       <c r="U38" s="4"/>
     </row>
     <row r="39" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A39" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="4">
-        <v>250000</v>
-      </c>
-      <c r="C39" s="4">
-        <f>SUM(I22:I27) * 12 + 4*I28</f>
-        <v>227808</v>
-      </c>
-      <c r="E39" s="4">
-        <f>B39-C39</f>
-        <v>22192</v>
-      </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="40"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="7">
+        <f>SUM(I3:I35)</f>
+        <v>105520.66666666667</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="K39" s="3"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -2175,24 +2280,20 @@
       <c r="U39" s="4"/>
     </row>
     <row r="40" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A40" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="4">
-        <v>250000</v>
-      </c>
-      <c r="C40" s="4">
-        <f>SUM(I17:I20) * 12</f>
-        <v>211176</v>
-      </c>
-      <c r="E40" s="4">
-        <f>B40-C40</f>
-        <v>38824</v>
-      </c>
+      <c r="A40" s="3"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="40"/>
+      <c r="I40" s="7">
+        <v>18095</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="K40" s="3"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
@@ -2206,37 +2307,15 @@
       <c r="U40" s="4"/>
     </row>
     <row r="41" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A41" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="4">
-        <v>250000</v>
-      </c>
-      <c r="C41" s="4">
-        <f>(29597 + 6488) + (3175 * 2 + 1258) + (3175 * 12) + (5354 * 3 + 1040) + (6075 + 10125 * 11) + (1331 + 3175 * 8)</f>
-        <v>243076</v>
-      </c>
+      <c r="A41" s="3"/>
+      <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="4">
-        <f t="shared" ref="E41:E43" si="0">B41-C41</f>
-        <v>6924</v>
-      </c>
+      <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41">
-        <f>G35*0.1/12</f>
-        <v>3333.3333333333335</v>
-      </c>
-      <c r="H41" s="20">
-        <v>9</v>
-      </c>
-      <c r="I41" s="20">
-        <f>G41*H41</f>
-        <v>30000</v>
-      </c>
-      <c r="J41" s="38">
-        <f>C41+I41</f>
-        <v>273076</v>
-      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -2250,37 +2329,21 @@
       <c r="U41" s="4"/>
     </row>
     <row r="42" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A42" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="4">
-        <v>250000</v>
-      </c>
-      <c r="C42" s="4">
-        <f>(4030 * 3) + (3425 * 9) + (10215 * 12) + (4830 * 12) + 567 + (2309 * 9)</f>
-        <v>244803</v>
-      </c>
+      <c r="A42" s="3"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="4">
-        <f>B42-C42</f>
-        <v>5197</v>
-      </c>
+      <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42">
-        <f>G36*0.1/12</f>
-        <v>2375</v>
-      </c>
-      <c r="H42" s="20">
-        <v>9</v>
-      </c>
-      <c r="I42" s="20">
-        <f>G42*H42</f>
-        <v>21375</v>
-      </c>
-      <c r="J42" s="38">
-        <f>C42+I42</f>
-        <v>266178</v>
-      </c>
+        <v>400000</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="14">
+        <f>I39+I40</f>
+        <v>123615.66666666667</v>
+      </c>
+      <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
@@ -2294,26 +2357,16 @@
       <c r="U42" s="4"/>
     </row>
     <row r="43" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A43" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="4">
-        <v>250000</v>
-      </c>
-      <c r="C43" s="4">
-        <f>SUM(I3:I4) * 12 + I5 * 7</f>
-        <v>174204</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4">
-        <f t="shared" si="0"/>
-        <v>75796</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="12"/>
+      <c r="G43">
+        <v>285000</v>
+      </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="40"/>
+      <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -2329,11 +2382,8 @@
     <row r="44" spans="1:21" ht="12.75" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+      <c r="C44" s="11"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="3"/>
@@ -2357,9 +2407,9 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
+      <c r="H45" s="7"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="3"/>
+      <c r="J45" s="36"/>
       <c r="K45" s="3"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
@@ -2373,16 +2423,24 @@
       <c r="U45" s="4"/>
     </row>
     <row r="46" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="A46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="4">
+        <v>250000</v>
+      </c>
+      <c r="C46" s="4">
+        <f>SUM(I22:I27) * 12 + 4*I28</f>
+        <v>227808</v>
+      </c>
+      <c r="E46" s="4">
+        <f>B46-C46</f>
+        <v>22192</v>
+      </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="3"/>
+      <c r="J46" s="36"/>
       <c r="K46" s="3"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
@@ -2396,16 +2454,24 @@
       <c r="U46" s="4"/>
     </row>
     <row r="47" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+      <c r="A47" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="4">
+        <v>250000</v>
+      </c>
+      <c r="C47" s="4">
+        <f>SUM(I17:I20) * 12</f>
+        <v>211176</v>
+      </c>
+      <c r="E47" s="4">
+        <f>B47-C47</f>
+        <v>38824</v>
+      </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="3"/>
+      <c r="J47" s="36"/>
       <c r="K47" s="3"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
@@ -2419,16 +2485,37 @@
       <c r="U47" s="4"/>
     </row>
     <row r="48" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+      <c r="A48" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="4">
+        <v>250000</v>
+      </c>
+      <c r="C48" s="4">
+        <f>(29597 + 6488) + (3175 * 2 + 1258) + (3175 * 12) + (5354 * 3 + 1040) + (6075 + 10125 * 11) + (1331 + 3175 * 8)</f>
+        <v>243076</v>
+      </c>
       <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+      <c r="E48" s="4">
+        <f t="shared" ref="E48:E50" si="0">B48-C48</f>
+        <v>6924</v>
+      </c>
       <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="3"/>
+      <c r="G48">
+        <f>G42*0.1/12</f>
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="H48" s="17">
+        <v>9</v>
+      </c>
+      <c r="I48" s="17">
+        <f>G48*H48</f>
+        <v>30000</v>
+      </c>
+      <c r="J48" s="35">
+        <f>C48+I48</f>
+        <v>273076</v>
+      </c>
       <c r="K48" s="3"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
@@ -2442,16 +2529,37 @@
       <c r="U48" s="4"/>
     </row>
     <row r="49" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A49" s="38"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+      <c r="A49" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="4">
+        <v>250000</v>
+      </c>
+      <c r="C49" s="4">
+        <f>(4030 * 3) + (3425 * 9) + (10215 * 12) + (4830 * 12) + 567 + (2309 * 9)</f>
+        <v>244803</v>
+      </c>
       <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="E49" s="4">
+        <f>B49-C49</f>
+        <v>5197</v>
+      </c>
       <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="3"/>
+      <c r="G49">
+        <f>G43*0.1/12</f>
+        <v>2375</v>
+      </c>
+      <c r="H49" s="17">
+        <v>9</v>
+      </c>
+      <c r="I49" s="17">
+        <f>G49*H49</f>
+        <v>21375</v>
+      </c>
+      <c r="J49" s="35">
+        <f>C49+I49</f>
+        <v>266178</v>
+      </c>
       <c r="K49" s="3"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
@@ -2465,16 +2573,26 @@
       <c r="U49" s="4"/>
     </row>
     <row r="50" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="A50" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="4">
+        <v>250000</v>
+      </c>
+      <c r="C50" s="4">
+        <f>SUM(I3:I4) * 12 + I5 * 7</f>
+        <v>174204</v>
+      </c>
       <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
+      <c r="E50" s="4">
+        <f t="shared" si="0"/>
+        <v>75796</v>
+      </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="3"/>
+      <c r="J50" s="36"/>
       <c r="K50" s="3"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
@@ -2603,7 +2721,7 @@
       <c r="U55" s="4"/>
     </row>
     <row r="56" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A56" s="4"/>
+      <c r="A56" s="35"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -3798,6 +3916,167 @@
       <c r="T107" s="4"/>
       <c r="U107" s="4"/>
     </row>
+    <row r="108" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4"/>
+      <c r="R108" s="4"/>
+      <c r="S108" s="4"/>
+      <c r="T108" s="4"/>
+      <c r="U108" s="4"/>
+    </row>
+    <row r="109" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
+      <c r="Q109" s="4"/>
+      <c r="R109" s="4"/>
+      <c r="S109" s="4"/>
+      <c r="T109" s="4"/>
+      <c r="U109" s="4"/>
+    </row>
+    <row r="110" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="4"/>
+      <c r="S110" s="4"/>
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+    </row>
+    <row r="111" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
+      <c r="S111" s="4"/>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+    </row>
+    <row r="112" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+      <c r="R112" s="4"/>
+      <c r="S112" s="4"/>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+    </row>
+    <row r="113" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+      <c r="R113" s="4"/>
+      <c r="S113" s="4"/>
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+    </row>
+    <row r="114" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4"/>
+      <c r="R114" s="4"/>
+      <c r="S114" s="4"/>
+      <c r="T114" s="4"/>
+      <c r="U114" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" firstPageNumber="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
